--- a/Protheus/Externo/Tucano/Animais Abatidos/Apontamento.xlsx
+++ b/Protheus/Externo/Tucano/Animais Abatidos/Apontamento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igor.oliveira\Documents\GitHub\Protheus-Producao\Protheus\Externo\Tucano\Animais Abatidos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\.Protheus-Producao\Protheus\Externo\Tucano\Animais Abatidos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1008039B-E2D9-46CD-9A92-5F735CAF7F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F3D0A7-4208-4F91-8334-ABD6D824CA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="horas" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>DATA</t>
   </si>
@@ -75,13 +75,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1E1E1E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -131,10 +137,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -143,7 +148,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,98 +443,177 @@
     <col min="4" max="4" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>45469</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F2" s="6">
+        <f>E2-D2</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45474</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" ref="F3:F8" si="0">E3-D3</f>
+        <v>5.5555555555555691E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45475</v>
+      </c>
+      <c r="D4" s="6">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E2" s="7">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="F2" s="7">
-        <f>E2-D2</f>
-        <v>8.3333333333333259E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="E4" s="6">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SUM(F2:F8)</f>
+        <v>0.7430555555555558</v>
+      </c>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6">
-        <v>45474</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.86805555555555547</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.92361111111111116</v>
-      </c>
-      <c r="F3" s="7">
-        <f>E3-D3</f>
-        <v>5.5555555555555691E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45479</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6">
-        <v>45475</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="F4" s="7">
-        <f>E4-D4</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="H4" s="1">
-        <f>SUM(F2:F5)</f>
-        <v>0.20138888888888895</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="C6" s="5">
+        <v>45480</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45480</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="F7" s="6">
+        <f>E7-D7</f>
+        <v>0.20833333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45481</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Protheus/Externo/Tucano/Animais Abatidos/Apontamento.xlsx
+++ b/Protheus/Externo/Tucano/Animais Abatidos/Apontamento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\.Protheus-Producao\Protheus\Externo\Tucano\Animais Abatidos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F3D0A7-4208-4F91-8334-ABD6D824CA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE37FC03-D678-423F-9346-9188487AAEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="horas" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>DATA</t>
   </si>
@@ -429,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,6 +593,10 @@
         <f>E7-D7</f>
         <v>0.20833333333333337</v>
       </c>
+      <c r="H7" s="1">
+        <f>SUM(F3:F8)</f>
+        <v>0.6180555555555558</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -613,6 +617,14 @@
       <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>4.1666666666666685E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Protheus/Externo/Tucano/Animais Abatidos/Apontamento.xlsx
+++ b/Protheus/Externo/Tucano/Animais Abatidos/Apontamento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\.Protheus-Producao\Protheus\Externo\Tucano\Animais Abatidos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE37FC03-D678-423F-9346-9188487AAEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9435A62-2D27-4C5B-B9BC-396D786E79E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13065" yWindow="2505" windowWidth="23010" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="horas" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>DATA</t>
   </si>
@@ -69,13 +69,25 @@
   </si>
   <si>
     <t>Código fonte da rotina</t>
+  </si>
+  <si>
+    <t>VAPCPA09</t>
+  </si>
+  <si>
+    <t>Alteração dos objetos da tela</t>
+  </si>
+  <si>
+    <t>VAPCPA10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="[h]:mm:ss;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +100,20 @@
       <color rgb="FF1E1E1E"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -137,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -149,6 +175,8 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,21 +457,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -463,7 +491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -484,7 +512,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -498,14 +526,14 @@
         <v>0.86805555555555547</v>
       </c>
       <c r="E3" s="6">
-        <v>0.92361111111111116</v>
+        <v>0.93055555555555558</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:F8" si="0">E3-D3</f>
-        <v>5.5555555555555691E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+        <f t="shared" ref="F3:F10" si="0">E3-D3</f>
+        <v>6.2500000000000111E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -525,13 +553,13 @@
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="H4" s="1">
-        <f>SUM(F2:F8)</f>
-        <v>0.7430555555555558</v>
+      <c r="H4" s="9">
+        <f>SUM(F2:F10)</f>
+        <v>1.0138888888888893</v>
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -552,7 +580,7 @@
         <v>0.16666666666666674</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -573,7 +601,7 @@
         <v>8.3333333333333315E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -595,10 +623,10 @@
       </c>
       <c r="H7" s="1">
         <f>SUM(F3:F8)</f>
-        <v>0.6180555555555558</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.62500000000000022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -619,16 +647,54 @@
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45491</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.74305555555555558</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.20138888888888895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45492</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Protheus/Externo/Tucano/Animais Abatidos/Apontamento.xlsx
+++ b/Protheus/Externo/Tucano/Animais Abatidos/Apontamento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\.Protheus-Producao\Protheus\Externo\Tucano\Animais Abatidos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE37FC03-D678-423F-9346-9188487AAEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDF05FE-03A2-403C-B979-8C67B377475B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="horas" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>DATA</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Código fonte da rotina</t>
+  </si>
+  <si>
+    <t>VAPCPA09</t>
+  </si>
+  <si>
+    <t>Alterei a disposição dos objetos na tela</t>
   </si>
 </sst>
 </file>
@@ -432,13 +438,13 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" customWidth="1"/>
   </cols>
@@ -501,7 +507,7 @@
         <v>0.92361111111111116</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:F8" si="0">E3-D3</f>
+        <f t="shared" ref="F3:F9" si="0">E3-D3</f>
         <v>5.5555555555555691E-2</v>
       </c>
     </row>
@@ -526,8 +532,8 @@
         <v>6.25E-2</v>
       </c>
       <c r="H4" s="1">
-        <f>SUM(F2:F8)</f>
-        <v>0.7430555555555558</v>
+        <f>SUM(F2:F10)</f>
+        <v>0.90972222222222243</v>
       </c>
       <c r="I4" s="8"/>
     </row>
@@ -593,10 +599,7 @@
         <f>E7-D7</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="H7" s="1">
-        <f>SUM(F3:F8)</f>
-        <v>0.6180555555555558</v>
-      </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -621,10 +624,23 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45491</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666663</v>
       </c>
     </row>
   </sheetData>

--- a/Protheus/Externo/Tucano/Animais Abatidos/Apontamento.xlsx
+++ b/Protheus/Externo/Tucano/Animais Abatidos/Apontamento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\.Protheus-Producao\Protheus\Externo\Tucano\Animais Abatidos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9435A62-2D27-4C5B-B9BC-396D786E79E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD897584-25EF-4BA8-A221-D2171431F586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13065" yWindow="2505" windowWidth="23010" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="492" yWindow="384" windowWidth="17172" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="horas" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>DATA</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Alteração dos objetos da tela</t>
-  </si>
-  <si>
-    <t>VAPCPA10</t>
   </si>
 </sst>
 </file>
@@ -85,7 +82,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -175,7 +172,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -460,18 +457,18 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -491,7 +488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -512,7 +509,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -533,7 +530,7 @@
         <v>6.2500000000000111E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -553,13 +550,10 @@
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="H4" s="9">
-        <f>SUM(F2:F10)</f>
-        <v>1.0138888888888893</v>
-      </c>
+      <c r="H4" s="9"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -580,7 +574,7 @@
         <v>0.16666666666666674</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -601,7 +595,7 @@
         <v>8.3333333333333315E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -621,12 +615,9 @@
         <f>E7-D7</f>
         <v>0.20833333333333337</v>
       </c>
-      <c r="H7" s="1">
-        <f>SUM(F3:F8)</f>
-        <v>0.62500000000000022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -647,7 +638,7 @@
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -658,38 +649,26 @@
         <v>45491</v>
       </c>
       <c r="D9" s="6">
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E9" s="6">
-        <v>0.74305555555555558</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="0"/>
-        <v>0.20138888888888895</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5">
-        <v>45492</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0.4375</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="0"/>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.20833333333333326</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C12" s="10"/>
     </row>
   </sheetData>
